--- a/Test/BO/Error_50.xlsx
+++ b/Test/BO/Error_50.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.9923760415736772</v>
+        <v>0.06830032384440865</v>
       </c>
       <c r="B1" t="n">
-        <v>1.212046276673344</v>
+        <v>0.06324709757919056</v>
       </c>
       <c r="C1" t="n">
-        <v>0.4300816944656153</v>
+        <v>0.06191229462841963</v>
       </c>
       <c r="D1" t="n">
-        <v>0.9475491574560274</v>
+        <v>1.353743062558171</v>
       </c>
       <c r="E1" t="n">
-        <v>0.5370784944738802</v>
+        <v>0.4793305665166612</v>
       </c>
       <c r="F1" t="n">
-        <v>0.628384929767146</v>
+        <v>-0.0009935688387239239</v>
       </c>
       <c r="G1" t="n">
-        <v>0.4787514068375615</v>
+        <v>0.005481435439594229</v>
       </c>
       <c r="H1" t="n">
-        <v>0.9775355067465861</v>
+        <v>0.05411780516750087</v>
       </c>
       <c r="I1" t="n">
-        <v>1.769793172873606</v>
+        <v>0.9109753020376565</v>
       </c>
       <c r="J1" t="n">
-        <v>0.1149024322315695</v>
+        <v>0.0429580160341172</v>
       </c>
     </row>
   </sheetData>

--- a/Test/BO/Error_50.xlsx
+++ b/Test/BO/Error_50.xlsx
@@ -413,47 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0.06830032384440865</v>
-      </c>
-      <c r="B1" t="n">
-        <v>0.06324709757919056</v>
-      </c>
-      <c r="C1" t="n">
-        <v>0.06191229462841963</v>
-      </c>
-      <c r="D1" t="n">
-        <v>1.353743062558171</v>
-      </c>
-      <c r="E1" t="n">
-        <v>0.4793305665166612</v>
-      </c>
-      <c r="F1" t="n">
-        <v>-0.0009935688387239239</v>
-      </c>
-      <c r="G1" t="n">
-        <v>0.005481435439594229</v>
-      </c>
-      <c r="H1" t="n">
-        <v>0.05411780516750087</v>
-      </c>
-      <c r="I1" t="n">
-        <v>0.9109753020376565</v>
-      </c>
-      <c r="J1" t="n">
-        <v>0.0429580160341172</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>